--- a/Project-SubwayPrediction/선행연구.xlsx
+++ b/Project-SubwayPrediction/선행연구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project-SubwayPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B180C67-B28D-4410-A9DA-D1DAB41F319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4DAFE8-620A-4960-914A-44F53CA4589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-83" windowWidth="24196" windowHeight="15196" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
+    <workbookView xWindow="17760" yWindow="8400" windowWidth="20640" windowHeight="13200" activeTab="1" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
   </bookViews>
   <sheets>
     <sheet name="지하철" sheetId="2" r:id="rId1"/>
@@ -1135,14 +1135,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1504,19 +1504,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="39"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -2112,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0080DD5B-4805-477A-9DEF-4B509F922164}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2424,13 +2424,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
